--- a/tests/testData/standard/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testData/standard/px-files/sitemaps/sitemap.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\practice\px-files\sitemaps\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19875" windowHeight="10560"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.7</t>
   </si>
@@ -401,98 +397,58 @@
   </si>
   <si>
     <t>EndOfData</t>
-  </si>
-  <si>
-    <r>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>GPタグ</t>
-    </r>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>og:title</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ホーム</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>og:type</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>og:description</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>article</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>記事の説明</t>
-    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -500,7 +456,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -516,25 +475,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFcccccc"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
+        <fgColor rgb="FFdddddd"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -548,14 +501,13 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -563,14 +515,13 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -578,14 +529,13 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFDDDDDD"/>
+        <color rgb="FFdddddd"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -593,45 +543,51 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="11">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -921,33 +877,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="11" width="2" customWidth="1"/>
-    <col min="12" max="12" width="40" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="14" max="16" width="11.19921875" customWidth="1"/>
-    <col min="17" max="17" width="3" customWidth="1"/>
-    <col min="18" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="3" customWidth="1"/>
-    <col min="20" max="21" width="30" customWidth="1"/>
-    <col min="22" max="22" width="3" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="true" style="0"/>
+    <col min="2" max="2" width="3" customWidth="true" style="0"/>
+    <col min="3" max="3" width="3" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3" customWidth="true" style="0"/>
+    <col min="5" max="5" width="3" customWidth="true" style="0"/>
+    <col min="6" max="6" width="3" customWidth="true" style="0"/>
+    <col min="7" max="7" width="20" customWidth="true" style="0"/>
+    <col min="8" max="8" width="2" customWidth="true" style="0"/>
+    <col min="9" max="9" width="2" customWidth="true" style="0"/>
+    <col min="10" max="10" width="2" customWidth="true" style="0"/>
+    <col min="11" max="11" width="2" customWidth="true" style="0"/>
+    <col min="12" max="12" width="40" customWidth="true" style="0"/>
+    <col min="13" max="13" width="20" customWidth="true" style="0"/>
+    <col min="14" max="14" width="3" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9" customWidth="true" style="0"/>
+    <col min="18" max="18" width="30" customWidth="true" style="0"/>
+    <col min="17" max="17" width="30" customWidth="true" style="0"/>
+    <col min="16" max="16" width="3" customWidth="true" style="0"/>
+    <col min="19" max="19" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" customHeight="1" ht="10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,32 +938,29 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-    </row>
-    <row r="3" spans="1:25" ht="38.25" x14ac:dyDescent="0.85">
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1016,55 +979,46 @@
       <c r="M7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>127</v>
+      <c r="N7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1083,44 +1037,35 @@
       <c r="M8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N8" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>131</v>
+      <c r="N8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22">
       <c r="A9" s="4"/>
       <c r="B9" s="8" t="s">
         <v>37</v>
@@ -1138,30 +1083,21 @@
         <v>38</v>
       </c>
       <c r="M9" s="4"/>
-      <c r="N9" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="P9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>1</v>
-      </c>
-      <c r="R9" s="4" t="s">
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
       <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="4"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8" t="s">
@@ -1179,28 +1115,25 @@
         <v>41</v>
       </c>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="4">
-        <v>1</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="9" t="s">
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="V10" s="4">
-        <v>1</v>
-      </c>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -1218,26 +1151,23 @@
         <v>45</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="4">
-        <v>1</v>
-      </c>
-      <c r="R11" s="4"/>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
       <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -1255,26 +1185,23 @@
         <v>48</v>
       </c>
       <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="4">
-        <v>1</v>
-      </c>
-      <c r="R12" s="4"/>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="S12" s="4"/>
-      <c r="T12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -1292,26 +1219,23 @@
         <v>51</v>
       </c>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="4">
-        <v>1</v>
-      </c>
-      <c r="R13" s="4"/>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="S13" s="4"/>
-      <c r="T13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="4"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -1329,26 +1253,23 @@
         <v>54</v>
       </c>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="4">
-        <v>1</v>
-      </c>
-      <c r="R14" s="4"/>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="S14" s="4"/>
-      <c r="T14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -1366,26 +1287,23 @@
         <v>57</v>
       </c>
       <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="4">
-        <v>1</v>
-      </c>
-      <c r="R15" s="4"/>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="S15" s="4"/>
-      <c r="T15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8" t="s">
@@ -1403,28 +1321,25 @@
         <v>60</v>
       </c>
       <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="4">
-        <v>1</v>
-      </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="9" t="s">
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="U16" s="9" t="s">
+      <c r="R16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="V16" s="4">
-        <v>1</v>
-      </c>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="S16" s="4">
+        <v>1</v>
+      </c>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="4"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -1442,26 +1357,23 @@
         <v>64</v>
       </c>
       <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="4">
-        <v>1</v>
-      </c>
-      <c r="R17" s="4"/>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="S17" s="4"/>
-      <c r="T17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>65</v>
-      </c>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
       <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="4"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -1479,26 +1391,23 @@
         <v>67</v>
       </c>
       <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="4">
-        <v>1</v>
-      </c>
-      <c r="R18" s="4"/>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="S18" s="4"/>
-      <c r="T18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
       <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="4"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -1516,26 +1425,23 @@
         <v>70</v>
       </c>
       <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="4">
-        <v>1</v>
-      </c>
-      <c r="R19" s="4"/>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="S19" s="4"/>
-      <c r="T19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
       <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="4"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -1553,26 +1459,23 @@
         <v>73</v>
       </c>
       <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="4">
-        <v>1</v>
-      </c>
-      <c r="R20" s="4"/>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="S20" s="4"/>
-      <c r="T20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>74</v>
-      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
       <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="4"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -1590,26 +1493,23 @@
         <v>76</v>
       </c>
       <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="4">
-        <v>1</v>
-      </c>
-      <c r="R21" s="4"/>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="S21" s="4"/>
-      <c r="T21" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
       <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -1627,26 +1527,23 @@
         <v>79</v>
       </c>
       <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="4">
-        <v>1</v>
-      </c>
-      <c r="R22" s="4"/>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="S22" s="4"/>
-      <c r="T22" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="4"/>
       <c r="B23" s="6"/>
       <c r="C23" s="8" t="s">
@@ -1664,28 +1561,25 @@
         <v>82</v>
       </c>
       <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="4">
-        <v>1</v>
-      </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="9" t="s">
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="U23" s="9" t="s">
+      <c r="R23" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="V23" s="4">
-        <v>1</v>
-      </c>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="S23" s="4">
+        <v>1</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="4"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -1703,26 +1597,23 @@
         <v>86</v>
       </c>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="4">
-        <v>1</v>
-      </c>
-      <c r="R24" s="4"/>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="S24" s="4"/>
-      <c r="T24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U24" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
       <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="4"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -1740,26 +1631,23 @@
         <v>89</v>
       </c>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="4">
-        <v>1</v>
-      </c>
-      <c r="R25" s="4"/>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>90</v>
+      </c>
       <c r="S25" s="4"/>
-      <c r="T25" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U25" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
       <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="4"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -1783,26 +1671,23 @@
         <v>94</v>
       </c>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="4">
-        <v>1</v>
-      </c>
-      <c r="R26" s="4"/>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="S26" s="4"/>
-      <c r="T26" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>95</v>
-      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
       <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="4" t="s">
         <v>96</v>
       </c>
@@ -1822,26 +1707,23 @@
         <v>98</v>
       </c>
       <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="4">
-        <v>1</v>
-      </c>
-      <c r="R27" s="4"/>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="S27" s="4"/>
-      <c r="T27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>99</v>
-      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
       <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="4"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -1859,26 +1741,23 @@
         <v>101</v>
       </c>
       <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="4">
-        <v>1</v>
-      </c>
-      <c r="R28" s="4"/>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="S28" s="4"/>
-      <c r="T28" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>102</v>
-      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
       <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="4"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -1898,26 +1777,23 @@
       <c r="M29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="4">
-        <v>1</v>
-      </c>
-      <c r="R29" s="4"/>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="S29" s="4"/>
-      <c r="T29" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U29" s="9" t="s">
-        <v>106</v>
-      </c>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
       <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="4"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -1935,26 +1811,23 @@
         <v>108</v>
       </c>
       <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="4">
-        <v>1</v>
-      </c>
-      <c r="R30" s="4"/>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>109</v>
+      </c>
       <c r="S30" s="4"/>
-      <c r="T30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U30" s="9" t="s">
-        <v>109</v>
-      </c>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
       <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="4"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -1974,26 +1847,23 @@
       <c r="M31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="4">
-        <v>1</v>
-      </c>
-      <c r="R31" s="4"/>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>112</v>
+      </c>
       <c r="S31" s="4"/>
-      <c r="T31" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U31" s="9" t="s">
-        <v>112</v>
-      </c>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
       <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="4"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -2013,26 +1883,23 @@
       <c r="M32" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="4">
-        <v>1</v>
-      </c>
-      <c r="R32" s="4"/>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="S32" s="4"/>
-      <c r="T32" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U32" s="9" t="s">
-        <v>115</v>
-      </c>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
       <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="4"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -2050,26 +1917,23 @@
         <v>117</v>
       </c>
       <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="4">
-        <v>1</v>
-      </c>
-      <c r="R33" s="4"/>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R33" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="S33" s="4"/>
-      <c r="T33" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U33" s="9" t="s">
-        <v>118</v>
-      </c>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
       <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="4"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -2087,26 +1951,23 @@
         <v>120</v>
       </c>
       <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="4">
-        <v>1</v>
-      </c>
-      <c r="R34" s="4"/>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="S34" s="4"/>
-      <c r="T34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U34" s="9" t="s">
-        <v>121</v>
-      </c>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
       <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="4"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8" t="s">
@@ -2124,26 +1985,23 @@
         <v>123</v>
       </c>
       <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="4">
-        <v>1</v>
-      </c>
-      <c r="R35" s="4"/>
+      <c r="N35" s="4">
+        <v>1</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="R35" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="S35" s="4"/>
-      <c r="T35" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="U35" s="9" t="s">
-        <v>125</v>
-      </c>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-    </row>
-    <row r="38" spans="1:25" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:22" customHeight="1" ht="5">
       <c r="A38" s="10" t="s">
         <v>126</v>
       </c>
@@ -2168,17 +2026,23 @@
       <c r="T38" s="10"/>
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="2">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
   </mergeCells>
-  <phoneticPr fontId="6"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>